--- a/Dashboard/DashboardFuncionarios.xlsx
+++ b/Dashboard/DashboardFuncionarios.xlsx
@@ -1,42 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso Udemy - Excel do Basico ao Avançado + Macro e VB\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277158F-50EE-4D62-952E-030C7FECF05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8258BFB8-12FF-471F-8245-AD1722B49BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="704" activeTab="1" xr2:uid="{899214EE-B51D-4446-AC56-B680CE1E289C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dash Vendedores" sheetId="5" r:id="rId1"/>
-    <sheet name="Tabela Dinamica Dados Vendedor" sheetId="8" r:id="rId2"/>
-    <sheet name="Grafico Masculino Feminino" sheetId="9" r:id="rId3"/>
-    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Grafico Velocimetromarca" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="PivotTable" sheetId="4" r:id="rId6"/>
-    <sheet name="Vendas" sheetId="1" r:id="rId7"/>
-    <sheet name="Dados Vendedor" sheetId="2" r:id="rId8"/>
-    <sheet name="Imagens" sheetId="3" r:id="rId9"/>
+    <sheet name="Dash Vendas" sheetId="5" r:id="rId1"/>
+    <sheet name="Dash Funcionarios" sheetId="10" r:id="rId2"/>
+    <sheet name="Tabela Dinamica Dados Vendedor" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Dados Vendedor" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Grafico Masculino Feminino" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Waffle" sheetId="7" state="hidden" r:id="rId6"/>
+    <sheet name="Grafico Velocimetromarca" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="PivotTable" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="Vendas" sheetId="1" state="hidden" r:id="rId9"/>
+    <sheet name="Imagens" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="SegmentaçãodeDados_Loja">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Sexo">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId10"/>
-    <pivotCache cacheId="14" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId12"/>
         <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -83,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
   <si>
     <t>Vendedor</t>
   </si>
@@ -226,9 +231,6 @@
     <t xml:space="preserve">Soma de  Total </t>
   </si>
   <si>
-    <t>(Tudo)</t>
-  </si>
-  <si>
     <t>Marcador</t>
   </si>
   <si>
@@ -291,15 +293,19 @@
   <si>
     <t>Vendas Femininas</t>
   </si>
+  <si>
+    <t>Qtd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -347,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +378,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -411,6 +423,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -418,14 +458,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -433,16 +472,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -450,9 +508,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -481,56 +539,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
@@ -782,47 +791,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>PivotTable!$H$4:$H$9</c:f>
+              <c:f>PivotTable!$H$4:$H$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bermuda Masculino</c:v>
+                  <c:v>Boné</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Camisa Masculina</c:v>
+                  <c:v>Calça Feminina Jogger</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Camisa Térmica</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Kit de Pinceis de Maquiagem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sapato Social</c:v>
+                  <c:v>Relógio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PivotTable!$I$4:$I$9</c:f>
+              <c:f>PivotTable!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>891.36</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.4</c:v>
+                  <c:v>69.989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>466.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>737.1</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,6 +1007,376 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[DashboardFuncionarios.xlsx]Tabela Dinamica Dados Vendedor!Tabela dinâmica1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="picture"/>
+          <c:spPr>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinamica Dados Vendedor'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinamica Dados Vendedor'!$L$5:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Angela Maria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carlos Moreira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paulo Santos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinamica Dados Vendedor'!$M$5:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>559.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>969.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>954.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8560-45AD-A7CC-1F96BD0D87FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1759062800"/>
+        <c:axId val="1759061840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1759062800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759061840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1759061840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1759062800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1074,7 +1441,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.49530408569056911</c:v>
+                  <c:v>0.22517390744259447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,20 +1554,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1229,16 +1582,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1261,7 +1607,250 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico Masculino Feminino'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Atual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:pictureOptions>
+              <c:pictureFormat val="stackScale"/>
+            </c:pictureOptions>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6B4B-4C65-93E5-34E3917C0661}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico Masculino Feminino'!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.77482609255740564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B4B-4C65-93E5-34E3917C0661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico Masculino Feminino'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6B4B-4C65-93E5-34E3917C0661}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico Masculino Feminino'!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B4B-4C65-93E5-34E3917C0661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="731841920"/>
+        <c:axId val="731842400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="731841920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="731842400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731842400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="731841920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1534,7 +2123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1641,47 +2230,35 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>PivotTable!$H$4:$H$9</c:f>
+              <c:f>PivotTable!$H$4:$H$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bermuda Masculino</c:v>
+                  <c:v>Boné</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Camisa Masculina</c:v>
+                  <c:v>Calça Feminina Jogger</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Camisa Térmica</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Kit de Pinceis de Maquiagem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sapato Social</c:v>
+                  <c:v>Relógio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PivotTable!$I$4:$I$9</c:f>
+              <c:f>PivotTable!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>891.36</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.4</c:v>
+                  <c:v>69.989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>466.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>737.1</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,7 +2433,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2022,47 +2599,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>PivotTable!$H$4:$H$9</c:f>
+              <c:f>PivotTable!$H$4:$H$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bermuda Masculino</c:v>
+                  <c:v>Boné</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Camisa Masculina</c:v>
+                  <c:v>Calça Feminina Jogger</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Camisa Térmica</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Kit de Pinceis de Maquiagem</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sapato Social</c:v>
+                  <c:v>Relógio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PivotTable!$I$4:$I$9</c:f>
+              <c:f>PivotTable!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>891.36</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.4</c:v>
+                  <c:v>69.989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>466.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>737.1</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,6 +2977,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2934,7 +3579,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3437,7 +4082,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3494,7 +4139,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3545,13 +4190,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3562,19 +4200,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3612,7 +4243,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3655,23 +4286,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3776,8 +4406,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3909,20 +4539,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3956,7 +4585,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4160,6 +4789,523 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -4226,6 +5372,20 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -4236,25 +5396,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -4351,17 +5492,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4476,7 +5606,528 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5390,8 +7041,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="24" name="Vendedor">
@@ -5414,7 +7065,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5483,7 +7134,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Grafico Velocimetromarca'!$H$3:$M$10" spid="_x0000_s5183"/>
+                  <a14:cameraTool cellRange="'Grafico Velocimetromarca'!$H$3:$M$10" spid="_x0000_s5291"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5588,7 +7239,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>22</a:t>
+            <a:t>6</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1600" b="1">
             <a:solidFill>
@@ -5670,7 +7321,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t> R$ 2.331,74 </a:t>
+            <a:t> R$ 969,99 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1800" b="1">
             <a:solidFill>
@@ -5748,7 +7399,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PivotTable!$B$12:$E$23" spid="_x0000_s5184"/>
+                  <a14:cameraTool cellRange="PivotTable!$B$12:$E$23" spid="_x0000_s5292"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5874,7 +7525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s5185"/>
+                  <a14:cameraTool cellRange="Waffle!$C$4:$L$13" spid="_x0000_s5293"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5916,16 +7567,16 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>167641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="50" name="Produto">
@@ -5948,7 +7599,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5994,18 +7645,1023 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Imagem 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FDDA69-A7FF-2F8B-22D5-2C7C6145E034}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Grafico Masculino Feminino'!$H$2:$K$16" spid="_x0000_s14406"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="3063240" y="708660"/>
+              <a:ext cx="2438400" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Imagem 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C515E163-4643-F1A5-54B6-D9FF55A1DFDE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Grafico Masculino Feminino'!$H$18:$K$31" spid="_x0000_s14407"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6096000" y="708660"/>
+              <a:ext cx="2438400" cy="2560320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Loja">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23891407-CF5E-4DFD-803B-A6E599DDC1BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Loja"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="335280" y="1264921"/>
+              <a:ext cx="1828800" cy="1584960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1645920" cy="396240"/>
+    <xdr:sp macro="" textlink="'Grafico Masculino Feminino'!B2">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E7DCE8-E35C-8962-457E-070971B67C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3535680"/>
+          <a:ext cx="1645920" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{56023E40-0400-4DEB-9C94-DAD881DC67DA}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>22,5%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1645920" cy="396240"/>
+    <xdr:sp macro="" textlink="'Grafico Masculino Feminino'!B6">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D223CFD6-D535-4854-87F9-B1D620B7A1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="3535680"/>
+          <a:ext cx="1645920" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{78D6345D-1B5B-4F41-9B97-5DC80C9C5E87}" type="TxLink">
+            <a:rPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>77,5%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>480060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>53340</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>60960</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Imagem 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628A672A-2D87-C2E7-0C0E-2D3DD95D8440}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'Tabela Dinamica Dados Vendedor'!$H$16:$N$27" spid="_x0000_s14408"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2308860" y="4404360"/>
+              <a:ext cx="8808720" cy="2476500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61FC8F6-234E-621F-64C9-A2AA00F306E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="4053840"/>
+          <a:ext cx="1440180" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Sexo">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D4FC69-0A97-4662-8627-82478224E976}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sexo"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="342900" y="2948941"/>
+              <a:ext cx="1828800" cy="1013460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CaixaDeTexto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D94511-9872-2D9F-482F-F74B088C3369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3878580" y="4069080"/>
+          <a:ext cx="1295400" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Retângulo: Cantos Arredondados 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B435A9D-F669-461C-AD02-C253FA70158C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251460" y="129540"/>
+          <a:ext cx="2621280" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 26667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 3" descr="Money">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90E6F22-2961-4C02-A636-6DE39A0C8402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="373380" y="190500"/>
+          <a:ext cx="704850" cy="715010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CaixaDeTexto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2A9CB8-F23B-4672-8C0E-E61BD904A057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082040" y="190500"/>
+          <a:ext cx="1699260" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Total de Vendas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Grafico Masculino Feminino'!E7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CaixaDeTexto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF642FBF-12E1-4717-839E-8B15D93014AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="541020"/>
+          <a:ext cx="1524000" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5995BA15-36CA-4037-95CA-34C791C8EF73}" type="TxLink">
+            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t> R$ 12.034,93 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="3200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101A6796-A197-A9D0-2491-2525123DB9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>922021</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1280160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Money">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBC9FB5-E339-4A4F-8F15-3BEE197313DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2331721" y="2933702"/>
+          <a:ext cx="358139" cy="355558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6037,7 +8693,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="350520" y="2499360"/>
+          <a:off x="312420" y="1524000"/>
           <a:ext cx="2009775" cy="2181860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6049,16 +8705,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>78740</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6090,7 +8746,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2415540" y="2468880"/>
+          <a:off x="1653540" y="1508760"/>
           <a:ext cx="2009775" cy="2181860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6102,16 +8758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6136,10 +8792,152 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557CD2C5-84FA-F308-39D9-99030A9CE34A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gráfico 6" descr="Homem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52650063-4CED-445C-9C74-4D39C067D32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="5059680"/>
+          <a:ext cx="2011680" cy="2209660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>159880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Gráfico 8" descr="Homem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6698BDCA-25EF-4887-BADE-3B8C46DC8DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1592580" y="5082540"/>
+          <a:ext cx="2148840" cy="2209660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6207,7 +9005,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>117%</a:t>
+            <a:t>48%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="2400"/>
         </a:p>
@@ -6218,7 +9016,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6324,7 +9122,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>117%</a:t>
+            <a:t>48%</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1400" b="1"/>
         </a:p>
@@ -6335,7 +9133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -6460,7 +9258,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6537,7 +9335,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6977,7 +9775,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="447783968"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -7354,8 +10152,95 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64A0448B-F330-425F-959E-71F7A265EF45}" name="Tabela dinâmica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:E13" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A3CD0D7-FDE3-4588-B8B1-204532DDBAE4}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="L4:M8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de  Vendas " fld="5" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64A0448B-F330-425F-959E-71F7A265EF45}" name="Tabela dinâmica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="4">
@@ -7430,29 +10315,7 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="1"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x v="2"/>
       <x v="2"/>
@@ -7482,7 +10345,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
+    <pageField fld="0" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Soma de Quantidade" fld="4" baseField="0" baseItem="0"/>
@@ -7500,124 +10363,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD87A8CD-B00F-41C1-8F6F-12C329372A85}" name="Tabela dinâmica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="H3:I9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="19">
-        <item x="3"/>
-        <item x="7"/>
-        <item x="15"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de  Total " fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E84F5F5-952B-42BC-9E66-B3FC71F9E971}" name="Tabela dinâmica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E84F5F5-952B-42BC-9E66-B3FC71F9E971}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -7707,22 +10455,16 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="4">
     <i>
-      <x v="6"/>
-      <x/>
+      <x v="3"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="6"/>
+      <x v="5"/>
     </i>
     <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -7743,7 +10485,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="6" hier="-1"/>
+    <pageField fld="0" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Soma de Unidades Vendidas" fld="4" baseField="0" baseItem="0"/>
@@ -7754,6 +10496,115 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD87A8CD-B00F-41C1-8F6F-12C329372A85}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="H3:I7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de  Total " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -7774,10 +10625,10 @@
         <i x="5"/>
         <i x="3"/>
         <i x="6"/>
-        <i x="7"/>
+        <i x="7" s="1"/>
         <i x="1"/>
         <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="4"/>
       </items>
     </tabular>
@@ -7793,22 +10644,22 @@
   <data>
     <tabular pivotCacheId="852700623">
       <items count="18">
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="11" s="1"/>
-        <i x="8" s="1"/>
-        <i x="12" s="1"/>
+        <i x="15" s="1"/>
+        <i x="1" s="1"/>
+        <i x="16" s="1"/>
+        <i x="3" s="1" nd="1"/>
         <i x="7" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
         <i x="5" s="1" nd="1"/>
         <i x="10" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
         <i x="17" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
         <i x="6" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
         <i x="13" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
         <i x="9" s="1" nd="1"/>
       </items>
@@ -7822,6 +10673,41 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Loja" xr10:uid="{67DD9CE2-43A1-4392-BD97-579DFFE4EC59}" sourceName="Loja">
+  <pivotTables>
+    <pivotTable tabId="8" name="Tabela dinâmica3"/>
+    <pivotTable tabId="8" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="447783968">
+      <items count="3">
+        <i x="2"/>
+        <i x="0"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Sexo" xr10:uid="{3A0C6EC1-0C05-4686-86C3-BD1D5C2542A7}" sourceName="Sexo">
+  <pivotTables>
+    <pivotTable tabId="8" name="Tabela dinâmica3"/>
+    <pivotTable tabId="8" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="447783968">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Vendedor" xr10:uid="{5655A104-F2CA-4726-A880-03FDBD96CAFD}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" rowHeight="234950"/>
@@ -7829,7 +10715,29 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Loja" xr10:uid="{791FE6E4-BA5D-4575-926D-442A7494DCEA}" cache="SegmentaçãodeDados_Loja" caption="Loja" rowHeight="234950"/>
+  <slicer name="Sexo" xr10:uid="{161390A2-1912-4421-9FFF-A9365D2A8497}" cache="SegmentaçãodeDados_Sexo" caption="Sexo" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3CD4329F-CB10-44A7-BD1E-4F616E6CBE37}" name="Tabela3" displayName="Tabela3" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{3CD4329F-CB10-44A7-BD1E-4F616E6CBE37}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{46E625EA-9E12-466D-98F7-D3BBDE0845C5}" name="Loja"/>
+    <tableColumn id="2" xr3:uid="{3A5205BD-C91F-45AC-87A9-1918038EAB5D}" name="Loja2"/>
+    <tableColumn id="3" xr3:uid="{5C4B6F7B-68FC-43B5-A728-C8673B2BEC09}" name="Vendedor"/>
+    <tableColumn id="4" xr3:uid="{B92A9D9E-1923-417F-9DF6-F3980288A898}" name="Sexo"/>
+    <tableColumn id="5" xr3:uid="{2E33CFD8-56D5-4F81-855F-BDABE8C75EFF}" name="Quantidade"/>
+    <tableColumn id="6" xr3:uid="{2CACEC2D-362F-4A16-861F-ABB3F464DCB0}" name=" Vendas " dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71F019FA-A7A3-403E-8883-B7DD8D8885AC}" name="Tabela1" displayName="Tabela1" ref="A1:F38" totalsRowShown="0">
   <autoFilter ref="A1:F38" xr:uid="{71F019FA-A7A3-403E-8883-B7DD8D8885AC}"/>
   <tableColumns count="6">
@@ -7838,22 +10746,7 @@
     <tableColumn id="3" xr3:uid="{9128B2D7-20EA-47BC-8548-7EBBE68C5C2C}" name="Produto"/>
     <tableColumn id="4" xr3:uid="{D6981C58-B265-48F5-B6FE-5E302908BD71}" name="Valor Unitário"/>
     <tableColumn id="5" xr3:uid="{0A41C5AE-A666-469E-B065-FC6B368AD98B}" name="Unidades Vendidas"/>
-    <tableColumn id="6" xr3:uid="{C75C34B3-C81F-41E1-BACD-74176BB96318}" name=" Total " dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3CD4329F-CB10-44A7-BD1E-4F616E6CBE37}" name="Tabela3" displayName="Tabela3" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9" xr:uid="{3CD4329F-CB10-44A7-BD1E-4F616E6CBE37}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{46E625EA-9E12-466D-98F7-D3BBDE0845C5}" name="Loja"/>
-    <tableColumn id="2" xr3:uid="{3A5205BD-C91F-45AC-87A9-1918038EAB5D}" name="Loja2"/>
-    <tableColumn id="3" xr3:uid="{5C4B6F7B-68FC-43B5-A728-C8673B2BEC09}" name="Vendedor"/>
-    <tableColumn id="4" xr3:uid="{B92A9D9E-1923-417F-9DF6-F3980288A898}" name="Sexo"/>
-    <tableColumn id="5" xr3:uid="{2E33CFD8-56D5-4F81-855F-BDABE8C75EFF}" name="Quantidade"/>
-    <tableColumn id="6" xr3:uid="{2CACEC2D-362F-4A16-861F-ABB3F464DCB0}" name=" Vendas " dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C75C34B3-C81F-41E1-BACD-74176BB96318}" name=" Total " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8158,8 +11051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF99488B-EFAC-4F22-AD92-879A810751A9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -8172,7 +11065,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -8192,29 +11085,29 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="10"/>
+      <c r="O3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3"/>
@@ -8225,11 +11118,11 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>60</v>
+      <c r="P12" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,49 +11130,49 @@
         <f t="array" ref="O13">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(#REF!)),2),"")</f>
         <v/>
       </c>
-      <c r="P13" s="6" cm="1">
+      <c r="P13" s="5" cm="1">
         <f t="array" ref="P13">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B1)),5),"")</f>
-        <v>891.36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O14" t="str">
         <f t="array" ref="O14">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A2)),2),"")</f>
-        <v>Camisa Masculina</v>
-      </c>
-      <c r="P14" s="6" cm="1">
+        <v>Calça Feminina Jogger</v>
+      </c>
+      <c r="P14" s="5" cm="1">
         <f t="array" ref="P14">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B2)),5),"")</f>
-        <v>153.4</v>
+        <v>69.989999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O15" t="str">
         <f t="array" ref="O15">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A3)),2),"")</f>
-        <v>Camisa Térmica</v>
-      </c>
-      <c r="P15" s="6" cm="1">
+        <v>Relógio</v>
+      </c>
+      <c r="P15" s="5" cm="1">
         <f t="array" ref="P15">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B3)),5),"")</f>
-        <v>83.8</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O16" t="str">
         <f t="array" ref="O16">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A4)),2),"")</f>
-        <v>Kit de Pinceis de Maquiagem</v>
-      </c>
-      <c r="P16" s="6" cm="1">
+        <v/>
+      </c>
+      <c r="P16" s="5" t="str" cm="1">
         <f t="array" ref="P16">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B4)),5),"")</f>
-        <v>466.08</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O17" t="str">
         <f t="array" ref="O17">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A5)),2),"")</f>
-        <v>Sapato Social</v>
-      </c>
-      <c r="P17" s="6" cm="1">
+        <v/>
+      </c>
+      <c r="P17" s="5" t="str" cm="1">
         <f t="array" ref="P17">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B5)),5),"")</f>
-        <v>737.1</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="15:16" x14ac:dyDescent="0.3">
@@ -8287,7 +11180,7 @@
         <f t="array" ref="O18">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A6)),2),"")</f>
         <v/>
       </c>
-      <c r="P18" s="6" t="str" cm="1">
+      <c r="P18" s="5" t="str" cm="1">
         <f t="array" ref="P18">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B6)),5),"")</f>
         <v/>
       </c>
@@ -8297,7 +11190,7 @@
         <f t="array" ref="O19">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A7)),2),"")</f>
         <v/>
       </c>
-      <c r="P19" s="6" t="str" cm="1">
+      <c r="P19" s="5" t="str" cm="1">
         <f t="array" ref="P19">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B7)),5),"")</f>
         <v/>
       </c>
@@ -8307,7 +11200,7 @@
         <f t="array" ref="O20">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A8)),2),"")</f>
         <v/>
       </c>
-      <c r="P20" s="6" t="str" cm="1">
+      <c r="P20" s="5" t="str" cm="1">
         <f t="array" ref="P20">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B8)),5),"")</f>
         <v/>
       </c>
@@ -8317,7 +11210,7 @@
         <f t="array" ref="O21">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A9)),2),"")</f>
         <v/>
       </c>
-      <c r="P21" s="6" t="str" cm="1">
+      <c r="P21" s="5" t="str" cm="1">
         <f t="array" ref="P21">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B9)),5),"")</f>
         <v/>
       </c>
@@ -8327,7 +11220,7 @@
         <f t="array" ref="O22">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A10)),2),"")</f>
         <v/>
       </c>
-      <c r="P22" s="6" t="str" cm="1">
+      <c r="P22" s="5" t="str" cm="1">
         <f t="array" ref="P22">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B10)),5),"")</f>
         <v/>
       </c>
@@ -8337,7 +11230,7 @@
         <f t="array" ref="O23">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A11)),2),"")</f>
         <v/>
       </c>
-      <c r="P23" s="6" t="str" cm="1">
+      <c r="P23" s="5" t="str" cm="1">
         <f t="array" ref="P23">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B11)),5),"")</f>
         <v/>
       </c>
@@ -8347,7 +11240,7 @@
         <f t="array" ref="O24">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A12)),2),"")</f>
         <v/>
       </c>
-      <c r="P24" s="6" t="str" cm="1">
+      <c r="P24" s="5" t="str" cm="1">
         <f t="array" ref="P24">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B12)),5),"")</f>
         <v/>
       </c>
@@ -8357,7 +11250,7 @@
         <f t="array" ref="O25">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A13)),2),"")</f>
         <v/>
       </c>
-      <c r="P25" s="6" t="str" cm="1">
+      <c r="P25" s="5" t="str" cm="1">
         <f t="array" ref="P25">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B13)),5),"")</f>
         <v/>
       </c>
@@ -8367,13 +11260,13 @@
         <f t="array" ref="O26">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(A14)),2),"")</f>
         <v/>
       </c>
-      <c r="P26" s="6" t="str" cm="1">
+      <c r="P26" s="5" t="str" cm="1">
         <f t="array" ref="P26">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B14)),5),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="P27" s="6" t="str" cm="1">
+      <c r="P27" s="5" t="str" cm="1">
         <f t="array" ref="P27">IFERROR(INDEX(PivotTable!$A$4:$E$100,SMALL(IF(PivotTable!$A$4:$A$100=PivotTable!$B$1,ROW(PivotTable!$A$4:$A$100)-3),ROW(B15)),5),"")</f>
         <v/>
       </c>
@@ -8408,12 +11301,334 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30844B67-1783-48D4-A6C1-1A5600CF530F}">
-  <dimension ref="A2:E13"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED254783-62DB-4498-A16A-461FBCC364DE}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6263688F-B543-4B4C-B05B-69139FC98CAD}">
+  <dimension ref="E1:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:17" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="5:17" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="5:17" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="F3" s="15">
+        <f>SUMIF('Tabela Dinamica Dados Vendedor'!C:C,"Feminino",'Tabela Dinamica Dados Vendedor'!E:E)</f>
+        <v>559.35</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="K3" s="15">
+        <f>SUMIF('Tabela Dinamica Dados Vendedor'!C:C,"Masculino",'Tabela Dinamica Dados Vendedor'!E:E)</f>
+        <v>1924.73</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O5" s="20" t="str">
+        <f t="array" ref="O5">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A1)),2),"")</f>
+        <v>Angela Maria</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="array" ref="P5">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B1)),4),"")</f>
+        <v>8</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="array" ref="Q5">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C1)),5),"")</f>
+        <v>559.35</v>
+      </c>
+    </row>
+    <row r="6" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O6" s="17" t="str">
+        <f t="array" ref="O6">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A2)),2),"")</f>
+        <v>Carlos Moreira</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="array" ref="P6">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B2)),4),"")</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="array" ref="Q6">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C2)),5),"")</f>
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="17" t="str">
+        <f t="array" ref="O7">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A3)),2),"")</f>
+        <v>Paulo Santos</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="array" ref="P7">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B3)),4),"")</f>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="array" ref="Q7">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C3)),5),"")</f>
+        <v>954.74</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="E8" s="23"/>
+      <c r="O8" s="17" t="str">
+        <f t="array" ref="O8">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A4)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="18" t="str">
+        <f t="array" ref="P8">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B4)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="19" t="str">
+        <f t="array" ref="Q8">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C4)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="17" t="str">
+        <f t="array" ref="O9">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A5)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="18" t="str">
+        <f t="array" ref="P9">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B5)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="19" t="str">
+        <f t="array" ref="Q9">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C5)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O10" s="17" t="str">
+        <f t="array" ref="O10">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A6)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="18" t="str">
+        <f t="array" ref="P10">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B6)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="19" t="str">
+        <f t="array" ref="Q10">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C6)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O11" s="17" t="str">
+        <f t="array" ref="O11">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A7)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="18" t="str">
+        <f t="array" ref="P11">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B7)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="19" t="str">
+        <f t="array" ref="Q11">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C7)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O12" s="17" t="str">
+        <f t="array" ref="O12">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A8)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="18" t="str">
+        <f t="array" ref="P12">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B8)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q12" s="19" t="str">
+        <f t="array" ref="Q12">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C8)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="17" t="str">
+        <f t="array" ref="O13">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A9)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="18" t="str">
+        <f t="array" ref="P13">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B9)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="19" t="str">
+        <f t="array" ref="Q13">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C9)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="17" t="str">
+        <f t="array" ref="O14">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A10)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="18" t="str">
+        <f t="array" ref="P14">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B10)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q14" s="19" t="str">
+        <f t="array" ref="Q14">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C10)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O15" s="17" t="str">
+        <f t="array" ref="O15">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A11)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="18" t="str">
+        <f t="array" ref="P15">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B11)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="19" t="str">
+        <f t="array" ref="Q15">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C11)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="17" t="str">
+        <f t="array" ref="O16">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A12)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="18" t="str">
+        <f t="array" ref="P16">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B12)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="19" t="str">
+        <f t="array" ref="Q16">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C12)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="17" t="str">
+        <f t="array" ref="O17">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A13)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="18" t="str">
+        <f t="array" ref="P17">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B13)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="19" t="str">
+        <f t="array" ref="Q17">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C13)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="17" t="str">
+        <f t="array" ref="O18">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A14)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="18" t="str">
+        <f t="array" ref="P18">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B14)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="19" t="str">
+        <f t="array" ref="Q18">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C14)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O19" s="17" t="str">
+        <f t="array" ref="O19">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!A15)),2),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="18" t="str">
+        <f t="array" ref="P19">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!B15)),4),"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="19" t="str">
+        <f t="array" ref="Q19">IFERROR(INDEX('Tabela Dinamica Dados Vendedor'!$A$5:$E$262,SMALL(IF('Tabela Dinamica Dados Vendedor'!$A$5:$A$262='Tabela Dinamica Dados Vendedor'!$B$2,ROW('Tabela Dinamica Dados Vendedor'!$A$5:$A$262)-4),ROW('Dash Funcionarios'!C15)),5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="18">
+        <f>SUM(P5:P19)</f>
+        <v>34</v>
+      </c>
+      <c r="Q21" s="19">
+        <f>SUM(Q5:Q19)</f>
+        <v>2484.08</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="15:17" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="K3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30844B67-1783-48D4-A6C1-1A5600CF530F}">
+  <dimension ref="A2:M8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8423,17 +11638,19 @@
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -8444,230 +11661,388 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1691.22</v>
+      <c r="D5" s="16">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16">
+        <v>559.35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6">
+        <v>559.35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2331.7399999999998</v>
+      <c r="D6" s="16">
+        <v>6</v>
+      </c>
+      <c r="E6" s="16">
+        <v>969.99</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="6">
+        <v>969.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1956.14</v>
+        <v>39</v>
+      </c>
+      <c r="D7" s="16">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16">
+        <v>954.74</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="6">
+        <v>954.74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1754.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1817.51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>559.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>969.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4">
-        <v>954.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4">
-        <v>103</v>
-      </c>
-      <c r="E13" s="4">
-        <v>12034.93</v>
+      <c r="D8" s="16">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2484.08</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2484.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D018E-27A5-47D7-86DC-3AE7E0B9AE2B}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1956.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>559.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>969.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1754.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1691.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1817.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2331.7399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>954.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77586F1-1E4C-48EF-9902-8159B11E5995}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="12">
+        <f>SUMIF('Tabela Dinamica Dados Vendedor'!C:C,"Feminino",'Tabela Dinamica Dados Vendedor'!E:E)/D2</f>
+        <v>0.22517390744259447</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUM('Tabela Dinamica Dados Vendedor'!E:E)/2</f>
+        <v>2484.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="15">
-        <f>SUMIF('Tabela Dinamica Dados Vendedor'!C:C,"Feminino",'Tabela Dinamica Dados Vendedor'!E:E)/D2</f>
-        <v>0.49530408569056911</v>
-      </c>
-      <c r="C2" s="8">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUMIF('Tabela Dinamica Dados Vendedor'!C:C,"Masculino",'Tabela Dinamica Dados Vendedor'!E:E)/D2</f>
+        <v>0.77482609255740564</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
-        <f>SUM('Tabela Dinamica Dados Vendedor'!E:E)/2</f>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5">
+        <f>SUM('Dados Vendedor'!F:F)</f>
         <v>12034.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="15">
-        <f>SUMIF('Tabela Dinamica Dados Vendedor'!C:C,"Masculino",'Tabela Dinamica Dados Vendedor'!E:E)/D2</f>
-        <v>0.50469591430943095</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8676,7 +12051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1055BE7E-3138-48E9-8CB0-969E05EC0B1B}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -8690,426 +12065,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11">
+      <c r="A1" s="9">
         <f>'Grafico Velocimetromarca'!D10</f>
-        <v>1.16587</v>
+        <v>0.48499500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f t="shared" ref="C4:C11" si="0">C5+10/100</f>
         <v>0.90999999999999992</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D11" si="1">D5+10/100</f>
         <v>0.91999999999999993</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f t="shared" ref="E4:E11" si="2">E5+10/100</f>
         <v>0.92999999999999994</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F11" si="3">F5+10/100</f>
         <v>0.94</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f t="shared" ref="G4:G11" si="4">G5+10/100</f>
         <v>0.94999999999999984</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <f t="shared" ref="H4:H11" si="5">H5+10/100</f>
         <v>0.95999999999999985</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I11" si="6">I5+10/100</f>
         <v>0.96999999999999986</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="10">
         <f t="shared" ref="J4:J11" si="7">J5+10/100</f>
         <v>0.97999999999999987</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="10">
         <f t="shared" ref="K4:K11" si="8">K5+10/100</f>
         <v>0.98999999999999988</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="10">
         <f t="shared" ref="L4:L11" si="9">L5+10/100</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>0.80999999999999994</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>0.82</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <f t="shared" si="2"/>
         <v>0.83</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f t="shared" si="4"/>
         <v>0.84999999999999987</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <f t="shared" si="5"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <f t="shared" si="6"/>
         <v>0.86999999999999988</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <f t="shared" si="7"/>
         <v>0.87999999999999989</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="10">
         <f t="shared" si="8"/>
         <v>0.8899999999999999</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="10">
         <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <f t="shared" si="2"/>
         <v>0.73</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f t="shared" si="3"/>
         <v>0.74</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f t="shared" si="4"/>
         <v>0.74999999999999989</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <f t="shared" si="5"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <f t="shared" si="6"/>
         <v>0.76999999999999991</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="10">
         <f t="shared" si="7"/>
         <v>0.77999999999999992</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <f t="shared" si="8"/>
         <v>0.78999999999999992</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="10">
         <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>0.62</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <f t="shared" si="4"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <f t="shared" si="5"/>
         <v>0.65999999999999992</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <f t="shared" si="6"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <f t="shared" si="7"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <f t="shared" si="8"/>
         <v>0.69</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <f t="shared" si="2"/>
         <v>0.53</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f t="shared" si="4"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <f t="shared" si="5"/>
         <v>0.55999999999999994</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <f t="shared" si="6"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="10">
         <f t="shared" si="7"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="10">
         <f t="shared" si="8"/>
         <v>0.59</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="10">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>0.41000000000000003</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <f t="shared" si="1"/>
         <v>0.42000000000000004</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <f t="shared" si="2"/>
         <v>0.43000000000000005</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f t="shared" si="3"/>
         <v>0.44000000000000006</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f t="shared" si="5"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <f t="shared" si="7"/>
         <v>0.48</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="10">
         <f t="shared" si="8"/>
         <v>0.49</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="10">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>0.31000000000000005</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <f t="shared" si="1"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <f t="shared" si="6"/>
         <v>0.37</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <f t="shared" si="7"/>
         <v>0.38</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <f t="shared" si="8"/>
         <v>0.39</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>0.21000000000000002</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>0.22000000000000003</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <f t="shared" si="2"/>
         <v>0.23</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <f t="shared" si="3"/>
         <v>0.24000000000000002</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <f t="shared" si="7"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <f t="shared" si="8"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f>C13+10/100</f>
         <v>0.11</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f t="shared" ref="D12:L12" si="10">D13+10/100</f>
         <v>0.12000000000000001</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <f t="shared" si="10"/>
         <v>0.13</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f t="shared" si="10"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <f t="shared" si="10"/>
         <v>0.19</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>0.01</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f>C13+1/100</f>
         <v>0.02</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <f t="shared" ref="E13:L13" si="11">D13+1/100</f>
         <v>0.03</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <f t="shared" si="11"/>
         <v>0.05</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <f t="shared" si="11"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <f t="shared" si="11"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <f t="shared" si="11"/>
         <v>0.09</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="10">
         <f t="shared" si="11"/>
         <v>9.9999999999999992E-2</v>
       </c>
@@ -9126,7 +12501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A79741D-1064-4242-9FAC-07BD728BDAE7}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -9142,78 +12517,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
+      <c r="A1" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="6">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5">
         <f>$B$6/4</f>
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="6">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
         <f t="shared" ref="B3:B5" si="0">$B$6/4</f>
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="6">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="6">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>54</v>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5">
         <f>SUM(PivotTable!E:E)/2</f>
-        <v>2331.7399999999998</v>
-      </c>
-      <c r="D10" s="8">
+        <v>969.99</v>
+      </c>
+      <c r="D10" s="7">
         <f>B10/B6</f>
-        <v>1.16587</v>
+        <v>0.48499500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -9221,20 +12596,20 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="7">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6">
         <f>B6*2-(B10+B11)</f>
-        <v>1623.2600000000002</v>
+        <v>2985.01</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>SUM(PivotTable!C:C)/2</f>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9244,9 +12619,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BB1361-4D51-4146-B30F-6A6A1A0DA513}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -9255,11 +12630,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9268,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -9296,137 +12671,91 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>148.56</v>
-      </c>
-      <c r="E4" s="4">
-        <v>891.36</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16">
+        <v>40</v>
+      </c>
+      <c r="E4" s="16">
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>891.36</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="16">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>153.4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>153.4</v>
+      <c r="D5" s="16">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="E5" s="16">
+        <v>69.989999999999995</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4">
-        <v>153.4</v>
+        <v>26</v>
+      </c>
+      <c r="I5" s="16">
+        <v>69.989999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>41.9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>83.8</v>
+      <c r="D6" s="16">
+        <v>390</v>
+      </c>
+      <c r="E6" s="16">
+        <v>780</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4">
-        <v>83.8</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="16">
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>233.04</v>
-      </c>
-      <c r="E7" s="4">
-        <v>466.08</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16">
+        <v>499.99</v>
+      </c>
+      <c r="E7" s="16">
+        <v>969.99</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4">
-        <v>466.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="E8" s="4">
-        <v>737.1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4">
-        <v>737.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
-        <v>658.8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2331.7399999999998</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2331.7399999999998</v>
+      <c r="I7" s="16">
+        <v>969.99</v>
       </c>
     </row>
   </sheetData>
@@ -9435,7 +12764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D83A1-064B-4E78-A12C-77460512D36D}">
   <dimension ref="A1:F38"/>
   <sheetViews>
@@ -10216,222 +13545,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832D018E-27A5-47D7-86DC-3AE7E0B9AE2B}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1956.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>559.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>969.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1754.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1691.22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1817.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2331.7399999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>954.74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED254783-62DB-4498-A16A-461FBCC364DE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>